--- a/QuestionsDataScienceCanAnswer_AlgorithmsAssociated.xlsx
+++ b/QuestionsDataScienceCanAnswer_AlgorithmsAssociated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="1060" windowWidth="28160" windowHeight="16040" tabRatio="500"/>
+    <workbookView xWindow="2160" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
   <si>
     <t>Type of Algorithm</t>
   </si>
@@ -431,6 +431,15 @@
   </si>
   <si>
     <t>Most Used:</t>
+  </si>
+  <si>
+    <t>Tool/Lib</t>
+  </si>
+  <si>
+    <t>data aggregation and summarization in SQL,R or Python because it is classification</t>
+  </si>
+  <si>
+    <t>data collection &amp; manipulation in SQL, R or Python because it is a who, what, when , where , why or how question or needs a regression algorithm to solve</t>
   </si>
 </sst>
 </file>
@@ -528,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +557,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -827,608 +842,651 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" customWidth="1"/>
-    <col min="3" max="3" width="67.83203125" customWidth="1"/>
-    <col min="4" max="4" width="53.83203125" customWidth="1"/>
-    <col min="5" max="5" width="93.1640625" customWidth="1"/>
+    <col min="1" max="2" width="47.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="49.1640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="93.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="106" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="127" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="127" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="2:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="2:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="2:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="2:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="2:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="2:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="2:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="2:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="2:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="2:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="D36" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="168" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="B55" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QuestionsDataScienceCanAnswer_AlgorithmsAssociated.xlsx
+++ b/QuestionsDataScienceCanAnswer_AlgorithmsAssociated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
   <si>
     <t>Type of Algorithm</t>
   </si>
@@ -436,10 +436,16 @@
     <t>Tool/Lib</t>
   </si>
   <si>
-    <t>data aggregation and summarization in SQL,R or Python because it is classification</t>
-  </si>
-  <si>
     <t>data collection &amp; manipulation in SQL, R or Python because it is a who, what, when , where , why or how question or needs a regression algorithm to solve</t>
+  </si>
+  <si>
+    <t>Data aggregation &amp; summarization</t>
+  </si>
+  <si>
+    <t>Can you tell me what happened?</t>
+  </si>
+  <si>
+    <t>Focuses on telling the story of what happened for a specific event</t>
   </si>
 </sst>
 </file>
@@ -842,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,9 +986,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
@@ -997,9 +1001,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1014,9 +1016,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="16" spans="1:6" ht="84" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="17" spans="2:6" ht="84" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="18" spans="2:6" ht="84" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>27</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="19" spans="2:6" ht="84" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="20" spans="2:6" ht="84" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
@@ -1367,126 +1367,146 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="168" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="168" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" s="7"/>
     </row>
     <row r="52" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52" s="7"/>
     </row>
     <row r="53" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53" s="7"/>
     </row>
     <row r="54" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" s="7"/>
     </row>
     <row r="55" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="7"/>
+      <c r="B57" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
